--- a/data/DMS실습(2)-조건부확률(정답).xlsx
+++ b/data/DMS실습(2)-조건부확률(정답).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpark/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpark/Documents/dev/fastcampus/dss/statistics-for-marketer/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1232,31 +1232,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1265,30 +1260,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -11114,8 +11114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11603,24 +11603,24 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="F18" s="23" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="F18" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="K18" s="24" t="s">
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="K18" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
     </row>
     <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -11861,30 +11861,30 @@
         <v>243</v>
       </c>
       <c r="G26" s="12">
-        <f>G21/$D$23</f>
+        <f>G21/$I$23</f>
         <v>0.28690656183852437</v>
       </c>
       <c r="H26" s="12">
-        <f>H21/$D$23</f>
+        <f t="shared" ref="H26:H27" si="1">H21/$I$23</f>
         <v>0.36371333534925915</v>
       </c>
       <c r="I26" s="18">
-        <f t="shared" ref="I26:I28" si="1">SUM(G26:H26)</f>
+        <f t="shared" ref="I26:I28" si="2">SUM(G26:H26)</f>
         <v>0.65061989718778346</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>243</v>
       </c>
       <c r="L26" s="13">
-        <f>L21/$D$23</f>
+        <f>L21/$N$23</f>
         <v>0.28956758391291199</v>
       </c>
       <c r="M26" s="13">
-        <f>M21/$D$23</f>
+        <f t="shared" ref="M26:M27" si="3">M21/$N$23</f>
         <v>0.36105231327487147</v>
       </c>
       <c r="N26" s="18">
-        <f t="shared" ref="N26:N28" si="2">SUM(L26:M26)</f>
+        <f t="shared" ref="N26:N28" si="4">SUM(L26:M26)</f>
         <v>0.65061989718778346</v>
       </c>
     </row>
@@ -11908,30 +11908,30 @@
         <v>244</v>
       </c>
       <c r="G27" s="12">
-        <f>G22/$D$23</f>
+        <f t="shared" ref="G27:H27" si="5">G22/$I$23</f>
         <v>0.15470214696099183</v>
       </c>
       <c r="H27" s="12">
-        <f>H22/$D$23</f>
+        <f t="shared" si="1"/>
         <v>0.19467795585122469</v>
       </c>
       <c r="I27" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34938010281221654</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>244</v>
       </c>
       <c r="L27" s="13">
-        <f>L22/$D$23</f>
+        <f t="shared" ref="L27:M27" si="6">L22/$N$23</f>
         <v>0.10843664953129725</v>
       </c>
       <c r="M27" s="13">
-        <f>M22/$D$23</f>
+        <f t="shared" si="3"/>
         <v>0.24094345328091926</v>
       </c>
       <c r="N27" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.34938010281221654</v>
       </c>
     </row>
@@ -11940,11 +11940,11 @@
         <v>24</v>
       </c>
       <c r="B28" s="20">
-        <f t="shared" ref="B28:C28" si="3">SUM(B26:B27)</f>
+        <f t="shared" ref="B28:C28" si="7">SUM(B26:B27)</f>
         <v>0.66646507408527367</v>
       </c>
       <c r="C28" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.33353492591472633</v>
       </c>
       <c r="D28" s="21">
@@ -11955,251 +11955,251 @@
         <v>24</v>
       </c>
       <c r="G28" s="20">
-        <f t="shared" ref="G28:H28" si="4">SUM(G26:G27)</f>
+        <f t="shared" ref="G28:H28" si="8">SUM(G26:G27)</f>
         <v>0.44160870879951619</v>
       </c>
       <c r="H28" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.55839129120048381</v>
       </c>
       <c r="I28" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K28" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L28" s="20">
-        <f t="shared" ref="L28:M28" si="5">SUM(L26:L27)</f>
+        <f t="shared" ref="L28:M28" si="9">SUM(L26:L27)</f>
         <v>0.39800423344420921</v>
       </c>
       <c r="M28" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.60199576655579068</v>
       </c>
       <c r="N28" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="F31" s="36" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="F31" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="K31" s="38" t="s">
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="K31" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25">
+      <c r="B32" s="35"/>
+      <c r="C32" s="35">
         <f>C26/D26</f>
         <v>0.34039784346532814</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="F32" s="25" t="s">
+      <c r="D32" s="35"/>
+      <c r="F32" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25">
+      <c r="G32" s="35"/>
+      <c r="H32" s="35">
         <f>H26/I26</f>
         <v>0.55902584123443022</v>
       </c>
-      <c r="I32" s="25"/>
-      <c r="K32" s="25" t="s">
+      <c r="I32" s="35"/>
+      <c r="K32" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25">
+      <c r="L32" s="35"/>
+      <c r="M32" s="35">
         <f>M26/N26</f>
         <v>0.55493586168432796</v>
       </c>
-      <c r="N32" s="25"/>
+      <c r="N32" s="35"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26">
+      <c r="B33" s="28"/>
+      <c r="C33" s="28">
         <f>C27/D27</f>
         <v>0.32075471698113212</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="F33" s="26" t="s">
+      <c r="D33" s="28"/>
+      <c r="F33" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26">
+      <c r="G33" s="28"/>
+      <c r="H33" s="28">
         <f>H27/I27</f>
         <v>0.55720962437251165</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="K33" s="26" t="s">
+      <c r="I33" s="28"/>
+      <c r="K33" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26">
+      <c r="L33" s="28"/>
+      <c r="M33" s="28">
         <f>M27/N27</f>
         <v>0.68963129652068544</v>
       </c>
-      <c r="N33" s="26"/>
+      <c r="N33" s="28"/>
     </row>
     <row r="34" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="F34" s="34" t="s">
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="F34" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="K34" s="34" t="s">
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="K34" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="L34" s="41" t="s">
+      <c r="L34" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="K35" s="7"/>
     </row>
     <row r="37" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="37" t="s">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="39" t="s">
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="31">
+      <c r="B38" s="31"/>
+      <c r="C38" s="30">
         <f>C26/C28</f>
         <v>0.66400725294650953</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="31" t="s">
+      <c r="D38" s="31"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="31">
+      <c r="G38" s="31"/>
+      <c r="H38" s="30">
         <f>H26/H28</f>
         <v>0.65135925484674539</v>
       </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="31" t="s">
+      <c r="I38" s="31"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="L38" s="32"/>
-      <c r="M38" s="31">
+      <c r="L38" s="31"/>
+      <c r="M38" s="30">
         <f>M26/M28</f>
         <v>0.5997588908981315</v>
       </c>
-      <c r="N38" s="32"/>
+      <c r="N38" s="31"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="29">
+      <c r="B39" s="26"/>
+      <c r="C39" s="25">
         <f>C27/C28</f>
         <v>0.33599274705349047</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="29">
+      <c r="G39" s="26"/>
+      <c r="H39" s="25">
         <f>H27/H28</f>
         <v>0.34864074515325466</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="29" t="s">
+      <c r="I39" s="26"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="L39" s="30"/>
-      <c r="M39" s="29">
+      <c r="L39" s="26"/>
+      <c r="M39" s="25">
         <f>M27/M28</f>
         <v>0.40024110910186866</v>
       </c>
-      <c r="N39" s="30"/>
+      <c r="N39" s="26"/>
     </row>
     <row r="40" spans="1:16" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="34" t="s">
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="34" t="s">
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="L40" s="41" t="s">
+      <c r="L40" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P41" s="10"/>
@@ -12208,12 +12208,12 @@
       <c r="P42" s="10"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K43" s="40" t="s">
+      <c r="K43" s="24" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K44" s="40" t="s">
+      <c r="K44" s="24" t="s">
         <v>272</v>
       </c>
     </row>
@@ -12222,19 +12222,16 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="F32:G32"/>
@@ -12251,16 +12248,19 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
